--- a/SchedulingData/static8/pso/scheduling1_15.xlsx
+++ b/SchedulingData/static8/pso/scheduling1_15.xlsx
@@ -462,230 +462,230 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>59.9</v>
+        <v>73.08</v>
       </c>
       <c r="E2" t="n">
-        <v>26.2</v>
+        <v>25.352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>65.40000000000001</v>
+        <v>61.52</v>
       </c>
       <c r="E3" t="n">
-        <v>24.66</v>
+        <v>26.048</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>48.42</v>
+        <v>95.14</v>
       </c>
       <c r="E4" t="n">
-        <v>26.348</v>
+        <v>26.136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>48.42</v>
+        <v>61.52</v>
       </c>
       <c r="D5" t="n">
-        <v>99.23999999999999</v>
+        <v>132.66</v>
       </c>
       <c r="E5" t="n">
-        <v>22.396</v>
+        <v>22.044</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>82.7</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>24.4</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>57.6</v>
+        <v>84.36</v>
       </c>
       <c r="E7" t="n">
-        <v>25.92</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>65.40000000000001</v>
+        <v>73.08</v>
       </c>
       <c r="D8" t="n">
-        <v>125.9</v>
+        <v>130.18</v>
       </c>
       <c r="E8" t="n">
-        <v>20.74</v>
+        <v>21.752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>95.14</v>
       </c>
       <c r="D9" t="n">
-        <v>78.09999999999999</v>
+        <v>146.14</v>
       </c>
       <c r="E9" t="n">
-        <v>26.36</v>
+        <v>22.656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>99.23999999999999</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>150.64</v>
+        <v>75.7</v>
       </c>
       <c r="E10" t="n">
-        <v>18.876</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>82.7</v>
+        <v>75.7</v>
       </c>
       <c r="D11" t="n">
-        <v>140.48</v>
+        <v>127.3</v>
       </c>
       <c r="E11" t="n">
-        <v>19.752</v>
+        <v>21.56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>140.48</v>
+        <v>130.18</v>
       </c>
       <c r="D12" t="n">
-        <v>200.42</v>
+        <v>186.8</v>
       </c>
       <c r="E12" t="n">
-        <v>15.888</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>59.9</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>121.64</v>
+        <v>115.42</v>
       </c>
       <c r="E13" t="n">
-        <v>21.156</v>
+        <v>22.768</v>
       </c>
     </row>
     <row r="14">
@@ -694,36 +694,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>150.64</v>
+        <v>186.8</v>
       </c>
       <c r="D14" t="n">
-        <v>211.94</v>
+        <v>225.14</v>
       </c>
       <c r="E14" t="n">
-        <v>14.856</v>
+        <v>15.496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>121.64</v>
+        <v>84.36</v>
       </c>
       <c r="D15" t="n">
-        <v>193.44</v>
+        <v>159.72</v>
       </c>
       <c r="E15" t="n">
-        <v>17.076</v>
+        <v>22.288</v>
       </c>
     </row>
     <row r="16">
@@ -732,41 +732,41 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>193.44</v>
+        <v>146.14</v>
       </c>
       <c r="D16" t="n">
-        <v>252.8</v>
+        <v>191</v>
       </c>
       <c r="E16" t="n">
-        <v>13.28</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>211.94</v>
+        <v>115.42</v>
       </c>
       <c r="D17" t="n">
-        <v>276.94</v>
+        <v>169.52</v>
       </c>
       <c r="E17" t="n">
-        <v>10.476</v>
+        <v>19.468</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -774,51 +774,51 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>252.8</v>
+        <v>127.3</v>
       </c>
       <c r="D18" t="n">
-        <v>318.36</v>
+        <v>177.96</v>
       </c>
       <c r="E18" t="n">
-        <v>9.343999999999999</v>
+        <v>17.624</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>318.36</v>
+        <v>225.14</v>
       </c>
       <c r="D19" t="n">
-        <v>368.98</v>
+        <v>275.28</v>
       </c>
       <c r="E19" t="n">
-        <v>5.912</v>
+        <v>12.592</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>125.9</v>
+        <v>132.66</v>
       </c>
       <c r="D20" t="n">
-        <v>189.74</v>
+        <v>197.8</v>
       </c>
       <c r="E20" t="n">
-        <v>16.956</v>
+        <v>19.14</v>
       </c>
     </row>
     <row r="21">
@@ -827,36 +827,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>78.09999999999999</v>
+        <v>159.72</v>
       </c>
       <c r="D21" t="n">
-        <v>136.5</v>
+        <v>221.6</v>
       </c>
       <c r="E21" t="n">
-        <v>23.64</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>189.74</v>
+        <v>275.28</v>
       </c>
       <c r="D22" t="n">
-        <v>242.02</v>
+        <v>332.78</v>
       </c>
       <c r="E22" t="n">
-        <v>12.868</v>
+        <v>8.952</v>
       </c>
     </row>
     <row r="23">
@@ -865,41 +865,41 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>368.98</v>
+        <v>191</v>
       </c>
       <c r="D23" t="n">
-        <v>420.78</v>
+        <v>238.2</v>
       </c>
       <c r="E23" t="n">
-        <v>2.352</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>57.6</v>
+        <v>221.6</v>
       </c>
       <c r="D24" t="n">
-        <v>112.58</v>
+        <v>257.92</v>
       </c>
       <c r="E24" t="n">
-        <v>21.552</v>
+        <v>15.708</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -907,32 +907,32 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>112.58</v>
+        <v>257.92</v>
       </c>
       <c r="D25" t="n">
-        <v>165.32</v>
+        <v>315.56</v>
       </c>
       <c r="E25" t="n">
-        <v>17.408</v>
+        <v>11.564</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>136.5</v>
+        <v>177.96</v>
       </c>
       <c r="D26" t="n">
-        <v>206.92</v>
+        <v>227.1</v>
       </c>
       <c r="E26" t="n">
-        <v>20.208</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="27">
@@ -941,226 +941,226 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>242.02</v>
+        <v>227.1</v>
       </c>
       <c r="D27" t="n">
-        <v>302.84</v>
+        <v>271.52</v>
       </c>
       <c r="E27" t="n">
-        <v>9.875999999999999</v>
+        <v>10.528</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>276.94</v>
+        <v>315.56</v>
       </c>
       <c r="D28" t="n">
-        <v>348.28</v>
+        <v>368.86</v>
       </c>
       <c r="E28" t="n">
-        <v>7.452</v>
+        <v>7.364</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>348.28</v>
+        <v>169.52</v>
       </c>
       <c r="D29" t="n">
-        <v>415.58</v>
+        <v>224.22</v>
       </c>
       <c r="E29" t="n">
-        <v>3.852</v>
+        <v>15.628</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>165.32</v>
+        <v>332.78</v>
       </c>
       <c r="D30" t="n">
-        <v>237.04</v>
+        <v>389.28</v>
       </c>
       <c r="E30" t="n">
-        <v>13.856</v>
+        <v>5.432</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>237.04</v>
+        <v>271.52</v>
       </c>
       <c r="D31" t="n">
-        <v>291.56</v>
+        <v>360.92</v>
       </c>
       <c r="E31" t="n">
-        <v>10.544</v>
+        <v>5.188</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>206.92</v>
+        <v>389.28</v>
       </c>
       <c r="D32" t="n">
-        <v>278.5</v>
+        <v>455.22</v>
       </c>
       <c r="E32" t="n">
-        <v>16.16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>291.56</v>
+        <v>455.22</v>
       </c>
       <c r="D33" t="n">
-        <v>366.06</v>
+        <v>532.22</v>
       </c>
       <c r="E33" t="n">
-        <v>7.704</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>278.5</v>
+        <v>532.22</v>
       </c>
       <c r="D34" t="n">
-        <v>334.7</v>
+        <v>590.46</v>
       </c>
       <c r="E34" t="n">
-        <v>12.68</v>
+        <v>21.776</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>334.7</v>
+        <v>238.2</v>
       </c>
       <c r="D35" t="n">
-        <v>415.6</v>
+        <v>295.1</v>
       </c>
       <c r="E35" t="n">
-        <v>7.7</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>200.42</v>
+        <v>360.92</v>
       </c>
       <c r="D36" t="n">
-        <v>267.2</v>
+        <v>399.42</v>
       </c>
       <c r="E36" t="n">
-        <v>12.3</v>
+        <v>2.468</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>415.58</v>
+        <v>368.86</v>
       </c>
       <c r="D37" t="n">
-        <v>475.38</v>
+        <v>424.16</v>
       </c>
       <c r="E37" t="n">
-        <v>0.012</v>
+        <v>3.464</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>475.38</v>
+        <v>295.1</v>
       </c>
       <c r="D38" t="n">
-        <v>581.66</v>
+        <v>355.84</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>9.196</v>
       </c>
     </row>
     <row r="39">
@@ -1169,112 +1169,112 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>302.84</v>
+        <v>399.42</v>
       </c>
       <c r="D39" t="n">
-        <v>379.24</v>
+        <v>466.38</v>
       </c>
       <c r="E39" t="n">
-        <v>4.356</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>366.06</v>
+        <v>466.38</v>
       </c>
       <c r="D40" t="n">
-        <v>413.26</v>
+        <v>533.62</v>
       </c>
       <c r="E40" t="n">
-        <v>3.624</v>
+        <v>24.956</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>415.6</v>
+        <v>197.8</v>
       </c>
       <c r="D41" t="n">
-        <v>469.46</v>
+        <v>254.58</v>
       </c>
       <c r="E41" t="n">
-        <v>4.424</v>
+        <v>15.092</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>420.78</v>
+        <v>533.62</v>
       </c>
       <c r="D42" t="n">
-        <v>507.58</v>
+        <v>570.52</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>22.396</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>507.58</v>
+        <v>570.52</v>
       </c>
       <c r="D43" t="n">
-        <v>581.96</v>
+        <v>628.4400000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>27.192</v>
+        <v>18.744</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>469.46</v>
+        <v>224.22</v>
       </c>
       <c r="D44" t="n">
-        <v>513.24</v>
+        <v>295.92</v>
       </c>
       <c r="E44" t="n">
-        <v>1.176</v>
+        <v>11.548</v>
       </c>
     </row>
     <row r="45">
@@ -1283,14 +1283,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>513.24</v>
+        <v>424.16</v>
       </c>
       <c r="D45" t="n">
-        <v>607.29</v>
+        <v>484.23</v>
       </c>
       <c r="E45" t="n">
         <v>30</v>
@@ -1298,230 +1298,230 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>413.26</v>
+        <v>484.23</v>
       </c>
       <c r="D46" t="n">
-        <v>461.4</v>
+        <v>553.03</v>
       </c>
       <c r="E46" t="n">
-        <v>0.92</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>461.4</v>
+        <v>590.46</v>
       </c>
       <c r="D47" t="n">
-        <v>551.16</v>
+        <v>654.26</v>
       </c>
       <c r="E47" t="n">
-        <v>30</v>
+        <v>17.996</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>379.24</v>
+        <v>295.92</v>
       </c>
       <c r="D48" t="n">
-        <v>423.52</v>
+        <v>368.22</v>
       </c>
       <c r="E48" t="n">
-        <v>1.548</v>
+        <v>5.948</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>423.52</v>
+        <v>355.84</v>
       </c>
       <c r="D49" t="n">
-        <v>487.42</v>
+        <v>431.34</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>5.276</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>267.2</v>
+        <v>368.22</v>
       </c>
       <c r="D50" t="n">
-        <v>352.04</v>
+        <v>437.5</v>
       </c>
       <c r="E50" t="n">
-        <v>9.396000000000001</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>581.66</v>
+        <v>431.34</v>
       </c>
       <c r="D51" t="n">
-        <v>632.88</v>
+        <v>516.7</v>
       </c>
       <c r="E51" t="n">
-        <v>26.568</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>632.88</v>
+        <v>516.7</v>
       </c>
       <c r="D52" t="n">
-        <v>703.92</v>
+        <v>610.52</v>
       </c>
       <c r="E52" t="n">
-        <v>22.564</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>551.16</v>
+        <v>654.26</v>
       </c>
       <c r="D53" t="n">
-        <v>626.86</v>
+        <v>735.76</v>
       </c>
       <c r="E53" t="n">
-        <v>25.58</v>
+        <v>13.916</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>352.04</v>
+        <v>610.52</v>
       </c>
       <c r="D54" t="n">
-        <v>402.7</v>
+        <v>656.4400000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>5.46</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>607.29</v>
+        <v>254.58</v>
       </c>
       <c r="D55" t="n">
-        <v>662.09</v>
+        <v>320</v>
       </c>
       <c r="E55" t="n">
-        <v>26.22</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>581.96</v>
+        <v>437.5</v>
       </c>
       <c r="D56" t="n">
-        <v>669.86</v>
+        <v>515.12</v>
       </c>
       <c r="E56" t="n">
-        <v>22.992</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>662.09</v>
+        <v>515.12</v>
       </c>
       <c r="D57" t="n">
-        <v>710.23</v>
+        <v>590.5</v>
       </c>
       <c r="E57" t="n">
-        <v>23.516</v>
+        <v>25.632</v>
       </c>
     </row>
     <row r="58">
@@ -1530,155 +1530,155 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>402.7</v>
+        <v>320</v>
       </c>
       <c r="D58" t="n">
-        <v>473.94</v>
+        <v>380.42</v>
       </c>
       <c r="E58" t="n">
-        <v>1.456</v>
+        <v>8.228</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>473.94</v>
+        <v>735.76</v>
       </c>
       <c r="D59" t="n">
-        <v>552.73</v>
+        <v>785.24</v>
       </c>
       <c r="E59" t="n">
-        <v>30</v>
+        <v>11.108</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>487.42</v>
+        <v>380.42</v>
       </c>
       <c r="D60" t="n">
-        <v>563.1799999999999</v>
+        <v>443.8</v>
       </c>
       <c r="E60" t="n">
-        <v>26.084</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>626.86</v>
+        <v>553.03</v>
       </c>
       <c r="D61" t="n">
-        <v>688.46</v>
+        <v>608.13</v>
       </c>
       <c r="E61" t="n">
-        <v>23.02</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>703.92</v>
+        <v>608.13</v>
       </c>
       <c r="D62" t="n">
-        <v>801.92</v>
+        <v>667.53</v>
       </c>
       <c r="E62" t="n">
-        <v>18.364</v>
+        <v>18.58</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>563.1799999999999</v>
+        <v>656.4400000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>638.8200000000001</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>23.62</v>
+        <v>22.108</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>638.8200000000001</v>
+        <v>785.24</v>
       </c>
       <c r="D64" t="n">
-        <v>688.2</v>
+        <v>824.4</v>
       </c>
       <c r="E64" t="n">
-        <v>19.812</v>
+        <v>7.832</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>688.2</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>729.14</v>
+        <v>788.08</v>
       </c>
       <c r="E65" t="n">
-        <v>16.848</v>
+        <v>19.644</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1686,108 +1686,108 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>688.46</v>
+        <v>443.8</v>
       </c>
       <c r="D66" t="n">
-        <v>737.98</v>
+        <v>508.22</v>
       </c>
       <c r="E66" t="n">
-        <v>20.188</v>
+        <v>2.148</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>552.73</v>
+        <v>628.4400000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>598.73</v>
+        <v>714.58</v>
       </c>
       <c r="E67" t="n">
-        <v>26.1</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>669.86</v>
+        <v>667.53</v>
       </c>
       <c r="D68" t="n">
-        <v>738.86</v>
+        <v>723.77</v>
       </c>
       <c r="E68" t="n">
-        <v>19.692</v>
+        <v>14.576</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>737.98</v>
+        <v>723.77</v>
       </c>
       <c r="D69" t="n">
-        <v>792.64</v>
+        <v>797.75</v>
       </c>
       <c r="E69" t="n">
-        <v>17.332</v>
+        <v>11.768</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>729.14</v>
+        <v>508.22</v>
       </c>
       <c r="D70" t="n">
-        <v>784.1799999999999</v>
+        <v>595.62</v>
       </c>
       <c r="E70" t="n">
-        <v>13.944</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>784.1799999999999</v>
+        <v>595.62</v>
       </c>
       <c r="D71" t="n">
-        <v>844.3</v>
+        <v>678</v>
       </c>
       <c r="E71" t="n">
-        <v>11.032</v>
+        <v>25.912</v>
       </c>
     </row>
   </sheetData>
